--- a/lib/PHPExcel/templates/OT_Loa.xlsx
+++ b/lib/PHPExcel/templates/OT_Loa.xlsx
@@ -683,22 +683,23 @@
     <xf numFmtId="167" fontId="10" fillId="4" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="40" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -712,26 +713,25 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="40" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1525,162 +1525,162 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="64" t="s">
+      <c r="J2" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="65"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="72"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="71"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
-      <c r="T2" s="64" t="s">
+      <c r="T2" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="U2" s="80"/>
-      <c r="V2" s="71" t="str">
+      <c r="U2" s="67"/>
+      <c r="V2" s="70" t="str">
         <f t="shared" ref="V2:V3" si="0">IF(ISBLANK(L2),"",L2)</f>
         <v/>
       </c>
-      <c r="W2" s="72"/>
+      <c r="W2" s="71"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
-      <c r="AD2" s="64" t="s">
+      <c r="AD2" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="AE2" s="80"/>
-      <c r="AF2" s="71" t="str">
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="70" t="str">
         <f t="shared" ref="AF2:AF3" si="1">IF(ISBLANK(V2),"",V2)</f>
         <v/>
       </c>
-      <c r="AG2" s="72"/>
+      <c r="AG2" s="71"/>
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
       <c r="AM2" s="1"/>
-      <c r="AN2" s="64" t="s">
+      <c r="AN2" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="AO2" s="80"/>
-      <c r="AP2" s="71" t="str">
+      <c r="AO2" s="67"/>
+      <c r="AP2" s="70" t="str">
         <f t="shared" ref="AP2:AP3" si="2">IF(ISBLANK(AF2),"",AF2)</f>
         <v/>
       </c>
-      <c r="AQ2" s="72"/>
+      <c r="AQ2" s="71"/>
       <c r="AR2" s="1"/>
       <c r="AS2" s="1"/>
       <c r="AT2" s="1"/>
       <c r="AU2" s="1"/>
       <c r="AV2" s="1"/>
       <c r="AW2" s="1"/>
-      <c r="AX2" s="64" t="s">
+      <c r="AX2" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="AY2" s="80"/>
-      <c r="AZ2" s="71" t="str">
+      <c r="AY2" s="67"/>
+      <c r="AZ2" s="70" t="str">
         <f t="shared" ref="AZ2:AZ3" si="3">IF(ISBLANK(AP2),"",AP2)</f>
         <v/>
       </c>
-      <c r="BA2" s="72"/>
+      <c r="BA2" s="71"/>
       <c r="BB2" s="1"/>
       <c r="BC2" s="1"/>
       <c r="BD2" s="1"/>
       <c r="BE2" s="1"/>
       <c r="BF2" s="1"/>
       <c r="BG2" s="1"/>
-      <c r="BH2" s="64" t="s">
+      <c r="BH2" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="BI2" s="80"/>
-      <c r="BJ2" s="71" t="str">
+      <c r="BI2" s="67"/>
+      <c r="BJ2" s="70" t="str">
         <f t="shared" ref="BJ2:BJ3" si="4">IF(ISBLANK(AZ2),"",AZ2)</f>
         <v/>
       </c>
-      <c r="BK2" s="72"/>
+      <c r="BK2" s="71"/>
       <c r="BL2" s="1"/>
       <c r="BM2" s="1"/>
       <c r="BN2" s="1"/>
       <c r="BO2" s="1"/>
       <c r="BP2" s="1"/>
       <c r="BQ2" s="1"/>
-      <c r="BR2" s="64" t="s">
+      <c r="BR2" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="BS2" s="80"/>
-      <c r="BT2" s="71" t="str">
+      <c r="BS2" s="67"/>
+      <c r="BT2" s="70" t="str">
         <f t="shared" ref="BT2:BT3" si="5">IF(ISBLANK(BJ2),"",BJ2)</f>
         <v/>
       </c>
-      <c r="BU2" s="72"/>
+      <c r="BU2" s="71"/>
       <c r="BV2" s="1"/>
       <c r="BW2" s="1"/>
       <c r="BX2" s="1"/>
       <c r="BY2" s="1"/>
       <c r="BZ2" s="1"/>
       <c r="CA2" s="1"/>
-      <c r="CB2" s="64" t="s">
+      <c r="CB2" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="CC2" s="80"/>
-      <c r="CD2" s="71" t="str">
+      <c r="CC2" s="67"/>
+      <c r="CD2" s="70" t="str">
         <f t="shared" ref="CD2:CD3" si="6">IF(ISBLANK(BT2),"",BT2)</f>
         <v/>
       </c>
-      <c r="CE2" s="72"/>
+      <c r="CE2" s="71"/>
       <c r="CF2" s="1"/>
       <c r="CG2" s="1"/>
       <c r="CH2" s="1"/>
       <c r="CI2" s="1"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
-      <c r="CL2" s="64" t="s">
+      <c r="CL2" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="CM2" s="80"/>
-      <c r="CN2" s="71" t="str">
+      <c r="CM2" s="67"/>
+      <c r="CN2" s="70" t="str">
         <f t="shared" ref="CN2:CN3" si="7">IF(ISBLANK(CD2),"",CD2)</f>
         <v/>
       </c>
-      <c r="CO2" s="72"/>
+      <c r="CO2" s="71"/>
       <c r="CP2" s="1"/>
       <c r="CQ2" s="1"/>
       <c r="CR2" s="1"/>
       <c r="CS2" s="1"/>
       <c r="CT2" s="1"/>
       <c r="CU2" s="1"/>
-      <c r="CV2" s="64" t="s">
+      <c r="CV2" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="CW2" s="80"/>
-      <c r="CX2" s="71" t="str">
+      <c r="CW2" s="67"/>
+      <c r="CX2" s="70" t="str">
         <f t="shared" ref="CX2:CX3" si="8">IF(ISBLANK(CN2),"",CN2)</f>
         <v/>
       </c>
-      <c r="CY2" s="72"/>
+      <c r="CY2" s="71"/>
       <c r="CZ2" s="1"/>
       <c r="DA2" s="1"/>
       <c r="DB2" s="1"/>
       <c r="DC2" s="1"/>
       <c r="DD2" s="1"/>
       <c r="DE2" s="1"/>
-      <c r="DF2" s="64" t="s">
+      <c r="DF2" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="DG2" s="80"/>
-      <c r="DH2" s="71" t="str">
+      <c r="DG2" s="67"/>
+      <c r="DH2" s="70" t="str">
         <f t="shared" ref="DH2:DH3" si="9">IF(ISBLANK(CX2),"",CX2)</f>
         <v/>
       </c>
-      <c r="DI2" s="72"/>
+      <c r="DI2" s="71"/>
     </row>
     <row r="3" spans="1:113" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -1692,140 +1692,140 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="74"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="73"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="81"/>
-      <c r="V3" s="73" t="str">
+      <c r="T3" s="68"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="72" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="W3" s="74"/>
+      <c r="W3" s="73"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="81"/>
-      <c r="AF3" s="73" t="str">
+      <c r="AD3" s="68"/>
+      <c r="AE3" s="69"/>
+      <c r="AF3" s="72" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AG3" s="74"/>
+      <c r="AG3" s="73"/>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
       <c r="AM3" s="1"/>
-      <c r="AN3" s="66"/>
-      <c r="AO3" s="81"/>
-      <c r="AP3" s="73" t="str">
+      <c r="AN3" s="68"/>
+      <c r="AO3" s="69"/>
+      <c r="AP3" s="72" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AQ3" s="74"/>
+      <c r="AQ3" s="73"/>
       <c r="AR3" s="1"/>
       <c r="AS3" s="1"/>
       <c r="AT3" s="1"/>
       <c r="AU3" s="1"/>
       <c r="AV3" s="1"/>
       <c r="AW3" s="1"/>
-      <c r="AX3" s="66"/>
-      <c r="AY3" s="81"/>
-      <c r="AZ3" s="73" t="str">
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="69"/>
+      <c r="AZ3" s="72" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="BA3" s="74"/>
+      <c r="BA3" s="73"/>
       <c r="BB3" s="1"/>
       <c r="BC3" s="1"/>
       <c r="BD3" s="1"/>
       <c r="BE3" s="1"/>
       <c r="BF3" s="1"/>
       <c r="BG3" s="1"/>
-      <c r="BH3" s="66"/>
-      <c r="BI3" s="81"/>
-      <c r="BJ3" s="73" t="str">
+      <c r="BH3" s="68"/>
+      <c r="BI3" s="69"/>
+      <c r="BJ3" s="72" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="BK3" s="74"/>
+      <c r="BK3" s="73"/>
       <c r="BL3" s="1"/>
       <c r="BM3" s="1"/>
       <c r="BN3" s="1"/>
       <c r="BO3" s="1"/>
       <c r="BP3" s="1"/>
       <c r="BQ3" s="1"/>
-      <c r="BR3" s="66"/>
-      <c r="BS3" s="81"/>
-      <c r="BT3" s="73" t="str">
+      <c r="BR3" s="68"/>
+      <c r="BS3" s="69"/>
+      <c r="BT3" s="72" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="BU3" s="74"/>
+      <c r="BU3" s="73"/>
       <c r="BV3" s="1"/>
       <c r="BW3" s="1"/>
       <c r="BX3" s="1"/>
       <c r="BY3" s="1"/>
       <c r="BZ3" s="1"/>
       <c r="CA3" s="1"/>
-      <c r="CB3" s="66"/>
-      <c r="CC3" s="81"/>
-      <c r="CD3" s="73" t="str">
+      <c r="CB3" s="68"/>
+      <c r="CC3" s="69"/>
+      <c r="CD3" s="72" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="CE3" s="74"/>
+      <c r="CE3" s="73"/>
       <c r="CF3" s="1"/>
       <c r="CG3" s="1"/>
       <c r="CH3" s="1"/>
       <c r="CI3" s="1"/>
       <c r="CJ3" s="1"/>
       <c r="CK3" s="1"/>
-      <c r="CL3" s="66"/>
-      <c r="CM3" s="81"/>
-      <c r="CN3" s="73" t="str">
+      <c r="CL3" s="68"/>
+      <c r="CM3" s="69"/>
+      <c r="CN3" s="72" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="CO3" s="74"/>
+      <c r="CO3" s="73"/>
       <c r="CP3" s="1"/>
       <c r="CQ3" s="1"/>
       <c r="CR3" s="1"/>
       <c r="CS3" s="1"/>
       <c r="CT3" s="1"/>
       <c r="CU3" s="1"/>
-      <c r="CV3" s="66"/>
-      <c r="CW3" s="81"/>
-      <c r="CX3" s="73" t="str">
+      <c r="CV3" s="68"/>
+      <c r="CW3" s="69"/>
+      <c r="CX3" s="72" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="CY3" s="74"/>
+      <c r="CY3" s="73"/>
       <c r="CZ3" s="1"/>
       <c r="DA3" s="1"/>
       <c r="DB3" s="1"/>
       <c r="DC3" s="1"/>
       <c r="DD3" s="1"/>
       <c r="DE3" s="1"/>
-      <c r="DF3" s="66"/>
-      <c r="DG3" s="81"/>
-      <c r="DH3" s="73" t="str">
+      <c r="DF3" s="68"/>
+      <c r="DG3" s="69"/>
+      <c r="DH3" s="72" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="DI3" s="74"/>
+      <c r="DI3" s="73"/>
     </row>
     <row r="4" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1838,214 +1838,214 @@
         <v>0</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="69"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="79"/>
       <c r="I4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J4" s="1"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
       <c r="M4" s="6"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="P4" s="1"/>
-      <c r="Q4" s="68" t="str">
+      <c r="Q4" s="74" t="str">
         <f>IF(ISBLANK(G4),"",G4)</f>
         <v/>
       </c>
-      <c r="R4" s="68"/>
+      <c r="R4" s="74"/>
       <c r="S4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="T4" s="1"/>
-      <c r="U4" s="70" t="str">
+      <c r="U4" s="75" t="str">
         <f t="shared" ref="U4:U6" si="10">IF(ISBLANK(K4),"",K4)</f>
         <v/>
       </c>
-      <c r="V4" s="70"/>
+      <c r="V4" s="75"/>
       <c r="W4" s="6"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Z4" s="1"/>
-      <c r="AA4" s="68" t="str">
+      <c r="AA4" s="74" t="str">
         <f>IF(ISBLANK(Q4),"",Q4)</f>
         <v/>
       </c>
-      <c r="AB4" s="68"/>
+      <c r="AB4" s="74"/>
       <c r="AC4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AD4" s="1"/>
-      <c r="AE4" s="70" t="str">
+      <c r="AE4" s="75" t="str">
         <f t="shared" ref="AE4:AE6" si="11">IF(ISBLANK(U4),"",U4)</f>
         <v/>
       </c>
-      <c r="AF4" s="70"/>
+      <c r="AF4" s="75"/>
       <c r="AG4" s="6"/>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AJ4" s="1"/>
-      <c r="AK4" s="68" t="str">
+      <c r="AK4" s="74" t="str">
         <f>IF(ISBLANK(AA4),"",AA4)</f>
         <v/>
       </c>
-      <c r="AL4" s="68"/>
+      <c r="AL4" s="74"/>
       <c r="AM4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AN4" s="1"/>
-      <c r="AO4" s="70" t="str">
+      <c r="AO4" s="75" t="str">
         <f t="shared" ref="AO4:AO6" si="12">IF(ISBLANK(AE4),"",AE4)</f>
         <v/>
       </c>
-      <c r="AP4" s="70"/>
+      <c r="AP4" s="75"/>
       <c r="AQ4" s="6"/>
       <c r="AR4" s="1"/>
       <c r="AS4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AT4" s="1"/>
-      <c r="AU4" s="68" t="str">
+      <c r="AU4" s="74" t="str">
         <f>IF(ISBLANK(AK4),"",AK4)</f>
         <v/>
       </c>
-      <c r="AV4" s="68"/>
+      <c r="AV4" s="74"/>
       <c r="AW4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AX4" s="1"/>
-      <c r="AY4" s="70" t="str">
+      <c r="AY4" s="75" t="str">
         <f t="shared" ref="AY4:AY6" si="13">IF(ISBLANK(AO4),"",AO4)</f>
         <v/>
       </c>
-      <c r="AZ4" s="70"/>
+      <c r="AZ4" s="75"/>
       <c r="BA4" s="6"/>
       <c r="BB4" s="1"/>
       <c r="BC4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BD4" s="1"/>
-      <c r="BE4" s="68" t="str">
+      <c r="BE4" s="74" t="str">
         <f>IF(ISBLANK(AU4),"",AU4)</f>
         <v/>
       </c>
-      <c r="BF4" s="68"/>
+      <c r="BF4" s="74"/>
       <c r="BG4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="BH4" s="1"/>
-      <c r="BI4" s="70" t="str">
+      <c r="BI4" s="75" t="str">
         <f t="shared" ref="BI4:BI6" si="14">IF(ISBLANK(AY4),"",AY4)</f>
         <v/>
       </c>
-      <c r="BJ4" s="70"/>
+      <c r="BJ4" s="75"/>
       <c r="BK4" s="6"/>
       <c r="BL4" s="1"/>
       <c r="BM4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BN4" s="1"/>
-      <c r="BO4" s="68" t="str">
+      <c r="BO4" s="74" t="str">
         <f>IF(ISBLANK(BE4),"",BE4)</f>
         <v/>
       </c>
-      <c r="BP4" s="68"/>
+      <c r="BP4" s="74"/>
       <c r="BQ4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="BR4" s="1"/>
-      <c r="BS4" s="70" t="str">
+      <c r="BS4" s="75" t="str">
         <f t="shared" ref="BS4:BS6" si="15">IF(ISBLANK(BI4),"",BI4)</f>
         <v/>
       </c>
-      <c r="BT4" s="70"/>
+      <c r="BT4" s="75"/>
       <c r="BU4" s="6"/>
       <c r="BV4" s="1"/>
       <c r="BW4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BX4" s="1"/>
-      <c r="BY4" s="68" t="str">
+      <c r="BY4" s="74" t="str">
         <f>IF(ISBLANK(BO4),"",BO4)</f>
         <v/>
       </c>
-      <c r="BZ4" s="68"/>
+      <c r="BZ4" s="74"/>
       <c r="CA4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="CB4" s="1"/>
-      <c r="CC4" s="70" t="str">
+      <c r="CC4" s="75" t="str">
         <f t="shared" ref="CC4:CC6" si="16">IF(ISBLANK(BS4),"",BS4)</f>
         <v/>
       </c>
-      <c r="CD4" s="70"/>
+      <c r="CD4" s="75"/>
       <c r="CE4" s="6"/>
       <c r="CF4" s="1"/>
       <c r="CG4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="CH4" s="1"/>
-      <c r="CI4" s="68" t="str">
+      <c r="CI4" s="74" t="str">
         <f>IF(ISBLANK(BY4),"",BY4)</f>
         <v/>
       </c>
-      <c r="CJ4" s="68"/>
+      <c r="CJ4" s="74"/>
       <c r="CK4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="CL4" s="1"/>
-      <c r="CM4" s="70" t="str">
+      <c r="CM4" s="75" t="str">
         <f t="shared" ref="CM4:CM6" si="17">IF(ISBLANK(CC4),"",CC4)</f>
         <v/>
       </c>
-      <c r="CN4" s="70"/>
+      <c r="CN4" s="75"/>
       <c r="CO4" s="6"/>
       <c r="CP4" s="1"/>
       <c r="CQ4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="CR4" s="1"/>
-      <c r="CS4" s="68" t="str">
+      <c r="CS4" s="74" t="str">
         <f>IF(ISBLANK(CI4),"",CI4)</f>
         <v/>
       </c>
-      <c r="CT4" s="68"/>
+      <c r="CT4" s="74"/>
       <c r="CU4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="CV4" s="1"/>
-      <c r="CW4" s="70" t="str">
+      <c r="CW4" s="75" t="str">
         <f t="shared" ref="CW4:CW6" si="18">IF(ISBLANK(CM4),"",CM4)</f>
         <v/>
       </c>
-      <c r="CX4" s="70"/>
+      <c r="CX4" s="75"/>
       <c r="CY4" s="6"/>
       <c r="CZ4" s="1"/>
       <c r="DA4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="DB4" s="1"/>
-      <c r="DC4" s="68" t="str">
+      <c r="DC4" s="74" t="str">
         <f>IF(ISBLANK(CS4),"",CS4)</f>
         <v/>
       </c>
-      <c r="DD4" s="68"/>
+      <c r="DD4" s="74"/>
       <c r="DE4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="DF4" s="1"/>
-      <c r="DG4" s="70" t="str">
+      <c r="DG4" s="75" t="str">
         <f t="shared" ref="DG4:DG6" si="19">IF(ISBLANK(CW4),"",CW4)</f>
         <v/>
       </c>
-      <c r="DH4" s="70"/>
+      <c r="DH4" s="75"/>
       <c r="DI4" s="6"/>
     </row>
     <row r="5" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2057,214 +2057,214 @@
         <v>1</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="69"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="79"/>
       <c r="I5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J5" s="1"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
       <c r="M5" s="6"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="P5" s="1"/>
-      <c r="Q5" s="77" t="str">
+      <c r="Q5" s="76" t="str">
         <f t="shared" ref="Q5:Q6" si="20">IF(ISBLANK(G5),"",G5)</f>
         <v/>
       </c>
-      <c r="R5" s="77"/>
+      <c r="R5" s="76"/>
       <c r="S5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="T5" s="1"/>
-      <c r="U5" s="78" t="str">
+      <c r="U5" s="65" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="V5" s="78"/>
+      <c r="V5" s="65"/>
       <c r="W5" s="6"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Z5" s="1"/>
-      <c r="AA5" s="77" t="str">
+      <c r="AA5" s="76" t="str">
         <f t="shared" ref="AA5:AA6" si="21">IF(ISBLANK(Q5),"",Q5)</f>
         <v/>
       </c>
-      <c r="AB5" s="77"/>
+      <c r="AB5" s="76"/>
       <c r="AC5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="AD5" s="1"/>
-      <c r="AE5" s="78" t="str">
+      <c r="AE5" s="65" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AF5" s="78"/>
+      <c r="AF5" s="65"/>
       <c r="AG5" s="6"/>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="AJ5" s="1"/>
-      <c r="AK5" s="77" t="str">
+      <c r="AK5" s="76" t="str">
         <f t="shared" ref="AK5:AK6" si="22">IF(ISBLANK(AA5),"",AA5)</f>
         <v/>
       </c>
-      <c r="AL5" s="77"/>
+      <c r="AL5" s="76"/>
       <c r="AM5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="AN5" s="1"/>
-      <c r="AO5" s="78" t="str">
+      <c r="AO5" s="65" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AP5" s="78"/>
+      <c r="AP5" s="65"/>
       <c r="AQ5" s="6"/>
       <c r="AR5" s="1"/>
       <c r="AS5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="AT5" s="1"/>
-      <c r="AU5" s="77" t="str">
+      <c r="AU5" s="76" t="str">
         <f t="shared" ref="AU5:AU6" si="23">IF(ISBLANK(AK5),"",AK5)</f>
         <v/>
       </c>
-      <c r="AV5" s="77"/>
+      <c r="AV5" s="76"/>
       <c r="AW5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="AX5" s="1"/>
-      <c r="AY5" s="78" t="str">
+      <c r="AY5" s="65" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AZ5" s="78"/>
+      <c r="AZ5" s="65"/>
       <c r="BA5" s="6"/>
       <c r="BB5" s="1"/>
       <c r="BC5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="BD5" s="1"/>
-      <c r="BE5" s="77" t="str">
+      <c r="BE5" s="76" t="str">
         <f t="shared" ref="BE5:BE6" si="24">IF(ISBLANK(AU5),"",AU5)</f>
         <v/>
       </c>
-      <c r="BF5" s="77"/>
+      <c r="BF5" s="76"/>
       <c r="BG5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="BH5" s="1"/>
-      <c r="BI5" s="78" t="str">
+      <c r="BI5" s="65" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="BJ5" s="78"/>
+      <c r="BJ5" s="65"/>
       <c r="BK5" s="6"/>
       <c r="BL5" s="1"/>
       <c r="BM5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="BN5" s="1"/>
-      <c r="BO5" s="77" t="str">
+      <c r="BO5" s="76" t="str">
         <f t="shared" ref="BO5:BO6" si="25">IF(ISBLANK(BE5),"",BE5)</f>
         <v/>
       </c>
-      <c r="BP5" s="77"/>
+      <c r="BP5" s="76"/>
       <c r="BQ5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="BR5" s="1"/>
-      <c r="BS5" s="78" t="str">
+      <c r="BS5" s="65" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="BT5" s="78"/>
+      <c r="BT5" s="65"/>
       <c r="BU5" s="6"/>
       <c r="BV5" s="1"/>
       <c r="BW5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="BX5" s="1"/>
-      <c r="BY5" s="77" t="str">
+      <c r="BY5" s="76" t="str">
         <f t="shared" ref="BY5:BY6" si="26">IF(ISBLANK(BO5),"",BO5)</f>
         <v/>
       </c>
-      <c r="BZ5" s="77"/>
+      <c r="BZ5" s="76"/>
       <c r="CA5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="CB5" s="1"/>
-      <c r="CC5" s="78" t="str">
+      <c r="CC5" s="65" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="CD5" s="78"/>
+      <c r="CD5" s="65"/>
       <c r="CE5" s="6"/>
       <c r="CF5" s="1"/>
       <c r="CG5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="CH5" s="1"/>
-      <c r="CI5" s="77" t="str">
+      <c r="CI5" s="76" t="str">
         <f t="shared" ref="CI5:CI6" si="27">IF(ISBLANK(BY5),"",BY5)</f>
         <v/>
       </c>
-      <c r="CJ5" s="77"/>
+      <c r="CJ5" s="76"/>
       <c r="CK5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="CL5" s="1"/>
-      <c r="CM5" s="78" t="str">
+      <c r="CM5" s="65" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="CN5" s="78"/>
+      <c r="CN5" s="65"/>
       <c r="CO5" s="6"/>
       <c r="CP5" s="1"/>
       <c r="CQ5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="CR5" s="1"/>
-      <c r="CS5" s="77" t="str">
+      <c r="CS5" s="76" t="str">
         <f t="shared" ref="CS5:CS6" si="28">IF(ISBLANK(CI5),"",CI5)</f>
         <v/>
       </c>
-      <c r="CT5" s="77"/>
+      <c r="CT5" s="76"/>
       <c r="CU5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="CV5" s="1"/>
-      <c r="CW5" s="78" t="str">
+      <c r="CW5" s="65" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="CX5" s="78"/>
+      <c r="CX5" s="65"/>
       <c r="CY5" s="6"/>
       <c r="CZ5" s="1"/>
       <c r="DA5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="DB5" s="1"/>
-      <c r="DC5" s="77" t="str">
+      <c r="DC5" s="76" t="str">
         <f t="shared" ref="DC5:DC6" si="29">IF(ISBLANK(CS5),"",CS5)</f>
         <v/>
       </c>
-      <c r="DD5" s="77"/>
+      <c r="DD5" s="76"/>
       <c r="DE5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="DF5" s="1"/>
-      <c r="DG5" s="78" t="str">
+      <c r="DG5" s="65" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="DH5" s="78"/>
+      <c r="DH5" s="65"/>
       <c r="DI5" s="6"/>
     </row>
     <row r="6" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2278,214 +2278,214 @@
         <v>2</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
       <c r="I6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
       <c r="M6" s="6"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P6" s="1"/>
-      <c r="Q6" s="79" t="str">
+      <c r="Q6" s="64" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="R6" s="79"/>
+      <c r="R6" s="64"/>
       <c r="S6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="T6" s="1"/>
-      <c r="U6" s="78" t="str">
+      <c r="U6" s="65" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="V6" s="78"/>
+      <c r="V6" s="65"/>
       <c r="W6" s="6"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z6" s="1"/>
-      <c r="AA6" s="79" t="str">
+      <c r="AA6" s="64" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AB6" s="79"/>
+      <c r="AB6" s="64"/>
       <c r="AC6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AD6" s="1"/>
-      <c r="AE6" s="78" t="str">
+      <c r="AE6" s="65" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AF6" s="78"/>
+      <c r="AF6" s="65"/>
       <c r="AG6" s="6"/>
       <c r="AH6" s="1"/>
       <c r="AI6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AJ6" s="1"/>
-      <c r="AK6" s="79" t="str">
+      <c r="AK6" s="64" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="AL6" s="79"/>
+      <c r="AL6" s="64"/>
       <c r="AM6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AN6" s="1"/>
-      <c r="AO6" s="78" t="str">
+      <c r="AO6" s="65" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AP6" s="78"/>
+      <c r="AP6" s="65"/>
       <c r="AQ6" s="6"/>
       <c r="AR6" s="1"/>
       <c r="AS6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AT6" s="1"/>
-      <c r="AU6" s="79" t="str">
+      <c r="AU6" s="64" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="AV6" s="79"/>
+      <c r="AV6" s="64"/>
       <c r="AW6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AX6" s="1"/>
-      <c r="AY6" s="78" t="str">
+      <c r="AY6" s="65" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AZ6" s="78"/>
+      <c r="AZ6" s="65"/>
       <c r="BA6" s="6"/>
       <c r="BB6" s="1"/>
       <c r="BC6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="BD6" s="1"/>
-      <c r="BE6" s="79" t="str">
+      <c r="BE6" s="64" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="BF6" s="79"/>
+      <c r="BF6" s="64"/>
       <c r="BG6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="BH6" s="1"/>
-      <c r="BI6" s="78" t="str">
+      <c r="BI6" s="65" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="BJ6" s="78"/>
+      <c r="BJ6" s="65"/>
       <c r="BK6" s="6"/>
       <c r="BL6" s="1"/>
       <c r="BM6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="BN6" s="1"/>
-      <c r="BO6" s="79" t="str">
+      <c r="BO6" s="64" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="BP6" s="79"/>
+      <c r="BP6" s="64"/>
       <c r="BQ6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="BR6" s="1"/>
-      <c r="BS6" s="78" t="str">
+      <c r="BS6" s="65" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="BT6" s="78"/>
+      <c r="BT6" s="65"/>
       <c r="BU6" s="6"/>
       <c r="BV6" s="1"/>
       <c r="BW6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="BX6" s="1"/>
-      <c r="BY6" s="79" t="str">
+      <c r="BY6" s="64" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="BZ6" s="79"/>
+      <c r="BZ6" s="64"/>
       <c r="CA6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="CB6" s="1"/>
-      <c r="CC6" s="78" t="str">
+      <c r="CC6" s="65" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="CD6" s="78"/>
+      <c r="CD6" s="65"/>
       <c r="CE6" s="6"/>
       <c r="CF6" s="1"/>
       <c r="CG6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="CH6" s="1"/>
-      <c r="CI6" s="79" t="str">
+      <c r="CI6" s="64" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="CJ6" s="79"/>
+      <c r="CJ6" s="64"/>
       <c r="CK6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="CL6" s="1"/>
-      <c r="CM6" s="78" t="str">
+      <c r="CM6" s="65" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="CN6" s="78"/>
+      <c r="CN6" s="65"/>
       <c r="CO6" s="6"/>
       <c r="CP6" s="1"/>
       <c r="CQ6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="CR6" s="1"/>
-      <c r="CS6" s="79" t="str">
+      <c r="CS6" s="64" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="CT6" s="79"/>
+      <c r="CT6" s="64"/>
       <c r="CU6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="CV6" s="1"/>
-      <c r="CW6" s="78" t="str">
+      <c r="CW6" s="65" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="CX6" s="78"/>
+      <c r="CX6" s="65"/>
       <c r="CY6" s="6"/>
       <c r="CZ6" s="1"/>
       <c r="DA6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="DB6" s="1"/>
-      <c r="DC6" s="79" t="str">
+      <c r="DC6" s="64" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="DD6" s="79"/>
+      <c r="DD6" s="64"/>
       <c r="DE6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="DF6" s="1"/>
-      <c r="DG6" s="78" t="str">
+      <c r="DG6" s="65" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="DH6" s="78"/>
+      <c r="DH6" s="65"/>
       <c r="DI6" s="6"/>
     </row>
     <row r="7" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5555,11 +5555,11 @@
       <c r="DI32" s="29"/>
     </row>
     <row r="33" spans="1:113" s="19" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="76" t="s">
+      <c r="A33" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="76"/>
-      <c r="C33" s="76"/>
+      <c r="B33" s="81"/>
+      <c r="C33" s="81"/>
       <c r="D33" s="29"/>
       <c r="E33" s="29"/>
       <c r="F33" s="29"/>
@@ -6598,7 +6598,10 @@
       <c r="K42" s="82"/>
       <c r="L42" s="82"/>
       <c r="M42" s="82"/>
-      <c r="N42" s="82"/>
+      <c r="N42" s="82" t="str">
+        <f>IF(ISBLANK(D42),"",D42)</f>
+        <v/>
+      </c>
       <c r="O42" s="82"/>
       <c r="P42" s="82"/>
       <c r="Q42" s="82"/>
@@ -6608,7 +6611,10 @@
       <c r="U42" s="82"/>
       <c r="V42" s="82"/>
       <c r="W42" s="82"/>
-      <c r="X42" s="82"/>
+      <c r="X42" s="82" t="str">
+        <f t="shared" ref="X42" si="33">IF(ISBLANK(N42),"",N42)</f>
+        <v/>
+      </c>
       <c r="Y42" s="82"/>
       <c r="Z42" s="82"/>
       <c r="AA42" s="82"/>
@@ -6618,7 +6624,10 @@
       <c r="AE42" s="82"/>
       <c r="AF42" s="82"/>
       <c r="AG42" s="82"/>
-      <c r="AH42" s="82"/>
+      <c r="AH42" s="82" t="str">
+        <f t="shared" ref="AH42" si="34">IF(ISBLANK(X42),"",X42)</f>
+        <v/>
+      </c>
       <c r="AI42" s="82"/>
       <c r="AJ42" s="82"/>
       <c r="AK42" s="82"/>
@@ -6628,7 +6637,10 @@
       <c r="AO42" s="82"/>
       <c r="AP42" s="82"/>
       <c r="AQ42" s="82"/>
-      <c r="AR42" s="82"/>
+      <c r="AR42" s="82" t="str">
+        <f t="shared" ref="AR42" si="35">IF(ISBLANK(AH42),"",AH42)</f>
+        <v/>
+      </c>
       <c r="AS42" s="82"/>
       <c r="AT42" s="82"/>
       <c r="AU42" s="82"/>
@@ -6638,7 +6650,10 @@
       <c r="AY42" s="82"/>
       <c r="AZ42" s="82"/>
       <c r="BA42" s="82"/>
-      <c r="BB42" s="82"/>
+      <c r="BB42" s="82" t="str">
+        <f t="shared" ref="BB42" si="36">IF(ISBLANK(AR42),"",AR42)</f>
+        <v/>
+      </c>
       <c r="BC42" s="82"/>
       <c r="BD42" s="82"/>
       <c r="BE42" s="82"/>
@@ -6648,7 +6663,10 @@
       <c r="BI42" s="82"/>
       <c r="BJ42" s="82"/>
       <c r="BK42" s="82"/>
-      <c r="BL42" s="82"/>
+      <c r="BL42" s="82" t="str">
+        <f t="shared" ref="BL42" si="37">IF(ISBLANK(BB42),"",BB42)</f>
+        <v/>
+      </c>
       <c r="BM42" s="82"/>
       <c r="BN42" s="82"/>
       <c r="BO42" s="82"/>
@@ -6658,7 +6676,10 @@
       <c r="BS42" s="82"/>
       <c r="BT42" s="82"/>
       <c r="BU42" s="82"/>
-      <c r="BV42" s="82"/>
+      <c r="BV42" s="82" t="str">
+        <f t="shared" ref="BV42" si="38">IF(ISBLANK(BL42),"",BL42)</f>
+        <v/>
+      </c>
       <c r="BW42" s="82"/>
       <c r="BX42" s="82"/>
       <c r="BY42" s="82"/>
@@ -6668,7 +6689,10 @@
       <c r="CC42" s="82"/>
       <c r="CD42" s="82"/>
       <c r="CE42" s="82"/>
-      <c r="CF42" s="82"/>
+      <c r="CF42" s="82" t="str">
+        <f t="shared" ref="CF42" si="39">IF(ISBLANK(BV42),"",BV42)</f>
+        <v/>
+      </c>
       <c r="CG42" s="82"/>
       <c r="CH42" s="82"/>
       <c r="CI42" s="82"/>
@@ -6678,7 +6702,10 @@
       <c r="CM42" s="82"/>
       <c r="CN42" s="82"/>
       <c r="CO42" s="82"/>
-      <c r="CP42" s="82"/>
+      <c r="CP42" s="82" t="str">
+        <f t="shared" ref="CP42" si="40">IF(ISBLANK(CF42),"",CF42)</f>
+        <v/>
+      </c>
       <c r="CQ42" s="82"/>
       <c r="CR42" s="82"/>
       <c r="CS42" s="82"/>
@@ -6688,7 +6715,10 @@
       <c r="CW42" s="82"/>
       <c r="CX42" s="82"/>
       <c r="CY42" s="82"/>
-      <c r="CZ42" s="82"/>
+      <c r="CZ42" s="82" t="str">
+        <f>IF(ISBLANK(CP42),"",CP42)</f>
+        <v/>
+      </c>
       <c r="DA42" s="82"/>
       <c r="DB42" s="82"/>
       <c r="DC42" s="82"/>
@@ -7177,7 +7207,10 @@
       <c r="K47" s="82"/>
       <c r="L47" s="82"/>
       <c r="M47" s="82"/>
-      <c r="N47" s="82"/>
+      <c r="N47" s="82" t="str">
+        <f>IF(ISBLANK(D47),"",D47)</f>
+        <v/>
+      </c>
       <c r="O47" s="82"/>
       <c r="P47" s="82"/>
       <c r="Q47" s="82"/>
@@ -7187,7 +7220,10 @@
       <c r="U47" s="82"/>
       <c r="V47" s="82"/>
       <c r="W47" s="82"/>
-      <c r="X47" s="82"/>
+      <c r="X47" s="82" t="str">
+        <f t="shared" ref="X47" si="41">IF(ISBLANK(N47),"",N47)</f>
+        <v/>
+      </c>
       <c r="Y47" s="82"/>
       <c r="Z47" s="82"/>
       <c r="AA47" s="82"/>
@@ -7197,7 +7233,10 @@
       <c r="AE47" s="82"/>
       <c r="AF47" s="82"/>
       <c r="AG47" s="82"/>
-      <c r="AH47" s="82"/>
+      <c r="AH47" s="82" t="str">
+        <f t="shared" ref="AH47" si="42">IF(ISBLANK(X47),"",X47)</f>
+        <v/>
+      </c>
       <c r="AI47" s="82"/>
       <c r="AJ47" s="82"/>
       <c r="AK47" s="82"/>
@@ -7207,7 +7246,10 @@
       <c r="AO47" s="82"/>
       <c r="AP47" s="82"/>
       <c r="AQ47" s="82"/>
-      <c r="AR47" s="82"/>
+      <c r="AR47" s="82" t="str">
+        <f t="shared" ref="AR47" si="43">IF(ISBLANK(AH47),"",AH47)</f>
+        <v/>
+      </c>
       <c r="AS47" s="82"/>
       <c r="AT47" s="82"/>
       <c r="AU47" s="82"/>
@@ -7217,7 +7259,10 @@
       <c r="AY47" s="82"/>
       <c r="AZ47" s="82"/>
       <c r="BA47" s="82"/>
-      <c r="BB47" s="82"/>
+      <c r="BB47" s="82" t="str">
+        <f t="shared" ref="BB47" si="44">IF(ISBLANK(AR47),"",AR47)</f>
+        <v/>
+      </c>
       <c r="BC47" s="82"/>
       <c r="BD47" s="82"/>
       <c r="BE47" s="82"/>
@@ -7227,7 +7272,10 @@
       <c r="BI47" s="82"/>
       <c r="BJ47" s="82"/>
       <c r="BK47" s="82"/>
-      <c r="BL47" s="82"/>
+      <c r="BL47" s="82" t="str">
+        <f t="shared" ref="BL47" si="45">IF(ISBLANK(BB47),"",BB47)</f>
+        <v/>
+      </c>
       <c r="BM47" s="82"/>
       <c r="BN47" s="82"/>
       <c r="BO47" s="82"/>
@@ -7237,7 +7285,10 @@
       <c r="BS47" s="82"/>
       <c r="BT47" s="82"/>
       <c r="BU47" s="82"/>
-      <c r="BV47" s="82"/>
+      <c r="BV47" s="82" t="str">
+        <f t="shared" ref="BV47" si="46">IF(ISBLANK(BL47),"",BL47)</f>
+        <v/>
+      </c>
       <c r="BW47" s="82"/>
       <c r="BX47" s="82"/>
       <c r="BY47" s="82"/>
@@ -7247,7 +7298,10 @@
       <c r="CC47" s="82"/>
       <c r="CD47" s="82"/>
       <c r="CE47" s="82"/>
-      <c r="CF47" s="82"/>
+      <c r="CF47" s="82" t="str">
+        <f t="shared" ref="CF47" si="47">IF(ISBLANK(BV47),"",BV47)</f>
+        <v/>
+      </c>
       <c r="CG47" s="82"/>
       <c r="CH47" s="82"/>
       <c r="CI47" s="82"/>
@@ -7257,7 +7311,10 @@
       <c r="CM47" s="82"/>
       <c r="CN47" s="82"/>
       <c r="CO47" s="82"/>
-      <c r="CP47" s="82"/>
+      <c r="CP47" s="82" t="str">
+        <f t="shared" ref="CP47" si="48">IF(ISBLANK(CF47),"",CF47)</f>
+        <v/>
+      </c>
       <c r="CQ47" s="82"/>
       <c r="CR47" s="82"/>
       <c r="CS47" s="82"/>
@@ -7267,7 +7324,10 @@
       <c r="CW47" s="82"/>
       <c r="CX47" s="82"/>
       <c r="CY47" s="82"/>
-      <c r="CZ47" s="82"/>
+      <c r="CZ47" s="82" t="str">
+        <f t="shared" ref="CZ47" si="49">IF(ISBLANK(CP47),"",CP47)</f>
+        <v/>
+      </c>
       <c r="DA47" s="82"/>
       <c r="DB47" s="82"/>
       <c r="DC47" s="82"/>
@@ -7742,67 +7802,37 @@
     </row>
   </sheetData>
   <mergeCells count="111">
-    <mergeCell ref="CS6:CT6"/>
-    <mergeCell ref="CW6:CX6"/>
-    <mergeCell ref="DF2:DG3"/>
-    <mergeCell ref="DC6:DD6"/>
-    <mergeCell ref="DG6:DH6"/>
-    <mergeCell ref="CV2:CW3"/>
-    <mergeCell ref="CX2:CY3"/>
-    <mergeCell ref="CS4:CT4"/>
-    <mergeCell ref="CW4:CX4"/>
-    <mergeCell ref="CS5:CT5"/>
-    <mergeCell ref="CW5:CX5"/>
-    <mergeCell ref="DH2:DI3"/>
-    <mergeCell ref="DC4:DD4"/>
-    <mergeCell ref="DG4:DH4"/>
-    <mergeCell ref="DC5:DD5"/>
-    <mergeCell ref="DG5:DH5"/>
-    <mergeCell ref="BY6:BZ6"/>
-    <mergeCell ref="CC6:CD6"/>
-    <mergeCell ref="CL2:CM3"/>
-    <mergeCell ref="CN2:CO3"/>
-    <mergeCell ref="CI4:CJ4"/>
-    <mergeCell ref="CM4:CN4"/>
-    <mergeCell ref="CI5:CJ5"/>
-    <mergeCell ref="CM5:CN5"/>
-    <mergeCell ref="CI6:CJ6"/>
-    <mergeCell ref="CM6:CN6"/>
-    <mergeCell ref="CB2:CC3"/>
-    <mergeCell ref="CD2:CE3"/>
-    <mergeCell ref="BY4:BZ4"/>
-    <mergeCell ref="CC4:CD4"/>
-    <mergeCell ref="BY5:BZ5"/>
-    <mergeCell ref="CC5:CD5"/>
-    <mergeCell ref="BE6:BF6"/>
-    <mergeCell ref="BI6:BJ6"/>
-    <mergeCell ref="BR2:BS3"/>
-    <mergeCell ref="BT2:BU3"/>
-    <mergeCell ref="BO4:BP4"/>
-    <mergeCell ref="BS4:BT4"/>
-    <mergeCell ref="BO5:BP5"/>
-    <mergeCell ref="BS5:BT5"/>
-    <mergeCell ref="BO6:BP6"/>
-    <mergeCell ref="BS6:BT6"/>
-    <mergeCell ref="BH2:BI3"/>
-    <mergeCell ref="BJ2:BK3"/>
-    <mergeCell ref="BE4:BF4"/>
-    <mergeCell ref="BI4:BJ4"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="AO6:AP6"/>
-    <mergeCell ref="AX2:AY3"/>
-    <mergeCell ref="AZ2:BA3"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AY4:AZ4"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="AU6:AV6"/>
-    <mergeCell ref="AY6:AZ6"/>
-    <mergeCell ref="AP2:AQ3"/>
-    <mergeCell ref="AN2:AO3"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="CP47:CY51"/>
+    <mergeCell ref="CZ47:DI51"/>
+    <mergeCell ref="BB42:BK46"/>
+    <mergeCell ref="BL42:BU46"/>
+    <mergeCell ref="BV42:CE46"/>
+    <mergeCell ref="CF42:CO46"/>
+    <mergeCell ref="CP42:CY46"/>
+    <mergeCell ref="CZ42:DI46"/>
+    <mergeCell ref="BB47:BK51"/>
+    <mergeCell ref="BL47:BU51"/>
+    <mergeCell ref="BV47:CE51"/>
+    <mergeCell ref="CF47:CO51"/>
+    <mergeCell ref="D42:M46"/>
+    <mergeCell ref="N42:W46"/>
+    <mergeCell ref="X42:AG46"/>
+    <mergeCell ref="AH42:AQ46"/>
+    <mergeCell ref="AR42:BA46"/>
+    <mergeCell ref="D47:M51"/>
+    <mergeCell ref="N47:W51"/>
+    <mergeCell ref="X47:AG51"/>
+    <mergeCell ref="AH47:AQ51"/>
+    <mergeCell ref="AR47:BA51"/>
+    <mergeCell ref="J2:K3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="L2:M3"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="Q5:R5"/>
     <mergeCell ref="U5:V5"/>
     <mergeCell ref="Q6:R6"/>
@@ -7822,37 +7852,67 @@
     <mergeCell ref="AE5:AF5"/>
     <mergeCell ref="AA6:AB6"/>
     <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="J2:K3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="L2:M3"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="D42:M46"/>
-    <mergeCell ref="N42:W46"/>
-    <mergeCell ref="X42:AG46"/>
-    <mergeCell ref="AH42:AQ46"/>
-    <mergeCell ref="AR42:BA46"/>
-    <mergeCell ref="D47:M51"/>
-    <mergeCell ref="N47:W51"/>
-    <mergeCell ref="X47:AG51"/>
-    <mergeCell ref="AH47:AQ51"/>
-    <mergeCell ref="AR47:BA51"/>
-    <mergeCell ref="CP47:CY51"/>
-    <mergeCell ref="CZ47:DI51"/>
-    <mergeCell ref="BB42:BK46"/>
-    <mergeCell ref="BL42:BU46"/>
-    <mergeCell ref="BV42:CE46"/>
-    <mergeCell ref="CF42:CO46"/>
-    <mergeCell ref="CP42:CY46"/>
-    <mergeCell ref="CZ42:DI46"/>
-    <mergeCell ref="BB47:BK51"/>
-    <mergeCell ref="BL47:BU51"/>
-    <mergeCell ref="BV47:CE51"/>
-    <mergeCell ref="CF47:CO51"/>
+    <mergeCell ref="AO6:AP6"/>
+    <mergeCell ref="AX2:AY3"/>
+    <mergeCell ref="AZ2:BA3"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AY4:AZ4"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="AU6:AV6"/>
+    <mergeCell ref="AY6:AZ6"/>
+    <mergeCell ref="AP2:AQ3"/>
+    <mergeCell ref="AN2:AO3"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="BE6:BF6"/>
+    <mergeCell ref="BI6:BJ6"/>
+    <mergeCell ref="BR2:BS3"/>
+    <mergeCell ref="BT2:BU3"/>
+    <mergeCell ref="BO4:BP4"/>
+    <mergeCell ref="BS4:BT4"/>
+    <mergeCell ref="BO5:BP5"/>
+    <mergeCell ref="BS5:BT5"/>
+    <mergeCell ref="BO6:BP6"/>
+    <mergeCell ref="BS6:BT6"/>
+    <mergeCell ref="BH2:BI3"/>
+    <mergeCell ref="BJ2:BK3"/>
+    <mergeCell ref="BE4:BF4"/>
+    <mergeCell ref="BI4:BJ4"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="BY6:BZ6"/>
+    <mergeCell ref="CC6:CD6"/>
+    <mergeCell ref="CL2:CM3"/>
+    <mergeCell ref="CN2:CO3"/>
+    <mergeCell ref="CI4:CJ4"/>
+    <mergeCell ref="CM4:CN4"/>
+    <mergeCell ref="CI5:CJ5"/>
+    <mergeCell ref="CM5:CN5"/>
+    <mergeCell ref="CI6:CJ6"/>
+    <mergeCell ref="CM6:CN6"/>
+    <mergeCell ref="CB2:CC3"/>
+    <mergeCell ref="CD2:CE3"/>
+    <mergeCell ref="BY4:BZ4"/>
+    <mergeCell ref="CC4:CD4"/>
+    <mergeCell ref="BY5:BZ5"/>
+    <mergeCell ref="CC5:CD5"/>
+    <mergeCell ref="CS6:CT6"/>
+    <mergeCell ref="CW6:CX6"/>
+    <mergeCell ref="DF2:DG3"/>
+    <mergeCell ref="DC6:DD6"/>
+    <mergeCell ref="DG6:DH6"/>
+    <mergeCell ref="CV2:CW3"/>
+    <mergeCell ref="CX2:CY3"/>
+    <mergeCell ref="CS4:CT4"/>
+    <mergeCell ref="CW4:CX4"/>
+    <mergeCell ref="CS5:CT5"/>
+    <mergeCell ref="CW5:CX5"/>
+    <mergeCell ref="DH2:DI3"/>
+    <mergeCell ref="DC4:DD4"/>
+    <mergeCell ref="DG4:DH4"/>
+    <mergeCell ref="DC5:DD5"/>
+    <mergeCell ref="DG5:DH5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -7870,6 +7930,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000AD9CF6C18809D409E0B63A8FF3E1B41" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="217b736c962d345a1faef7cef7b5d759">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a77f6bfd898681e5a12a068144fab656" ns2:_="">
     <xsd:import namespace="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97"/>
@@ -8031,22 +8106,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{101401F0-266B-4560-B9EB-92F0EC712594}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB2F065B-0021-4075-B51C-3CCB86F83471}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A48B95A3-8CBE-4085-A074-1D1F0B8C67A1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8062,28 +8146,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB2F065B-0021-4075-B51C-3CCB86F83471}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{101401F0-266B-4560-B9EB-92F0EC712594}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>